--- a/biology/Zoologie/Coenobita_clypeatus/Coenobita_clypeatus.xlsx
+++ b/biology/Zoologie/Coenobita_clypeatus/Coenobita_clypeatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenobita clypeatus est un bernard l'hermite terrestre vivant aux Caraïbes, dans le Sud-Est des États-Unis (Floride), au Mexique. Un de ses noms vernaculaires est " Pinceur violet " en rapport à sa grosse pince violette.
 </t>
@@ -511,9 +523,11 @@
           <t>Description de l'espèce</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La couleur de Coenobita clypeatus présente des variations selon le spécimen, il a généralement le corps rouge-orangé et une grosse pince violette[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La couleur de Coenobita clypeatus présente des variations selon le spécimen, il a généralement le corps rouge-orangé et une grosse pince violette.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenobita clypeatus est omnivore et détritivore. Néanmoins, il risque une carence en calcium s'il ne parvient pas à trouver des aliments qui sont nécessaires à son développement. Une telle carence peut causer des problèmes pour la reconstitution de l'exosquelette après la mue.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est présente dans les Caraïbes, le sud de la Floride, le Venezuela, les Bermudes, Porto Rico et Haïti.
 </t>
@@ -604,7 +622,9 @@
           <t>Coenobita clypeatus et l'Homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est considéré comme faisant partie des nouveaux animaux de compagnie.
 </t>
